--- a/TestData/MedPass.xlsx
+++ b/TestData/MedPass.xlsx
@@ -16,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -68,11 +71,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,17 +371,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/MedPass.xlsx
+++ b/TestData/MedPass.xlsx
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>A</t>
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -371,20 +374,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/MedPass.xlsx
+++ b/TestData/MedPass.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>A</t>
   </si>
@@ -25,6 +25,12 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
@@ -374,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -393,6 +399,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/TestData/MedPass.xlsx
+++ b/TestData/MedPass.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>A</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -383,7 +386,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -405,6 +408,9 @@
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/MedPass.xlsx
+++ b/TestData/MedPass.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>A</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
   </si>
 </sst>
 </file>
@@ -383,15 +386,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,7 +405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -411,6 +414,9 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/MedPass.xlsx
+++ b/TestData/MedPass.xlsx
@@ -18,12 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -37,6 +31,12 @@
   </si>
   <si>
     <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
   </si>
 </sst>
 </file>
@@ -389,34 +389,34 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
